--- a/resources/file2.xlsx
+++ b/resources/file2.xlsx
@@ -1,122 +1,414 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LT2016\Documents\ContexturesSampleFiles\datavalsamples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F59858B6-39A6-4136-B76E-05A4A177F119}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MyLinks" sheetId="4" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="ListMonths">OFFSET(Sheet1!$D$1,1,0,MAX(Sheet1!$A:$A),1)</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Мурмурвоз</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ListMonths</t>
+  </si>
+  <si>
+    <t>Select Month</t>
+  </si>
+  <si>
+    <t>Contextures Products</t>
+  </si>
+  <si>
+    <t>UserForms for Data Entry ebook Kit</t>
+  </si>
+  <si>
+    <t>Contextures Excel Tools Add-in</t>
+  </si>
+  <si>
+    <t>30 Excel Functions in 30 Days eBook Kit</t>
+  </si>
+  <si>
+    <t>Contextures Recommends</t>
+  </si>
+  <si>
+    <t>Contextures Excel Tips Website</t>
+  </si>
+  <si>
+    <t>Contextures Excel Blog</t>
+  </si>
+  <si>
+    <t>Excel Pivot Tables Blog</t>
+  </si>
+  <si>
+    <t>Time-saving tools for pivot table power users</t>
+  </si>
+  <si>
+    <t>Step by step instructions and videos</t>
+  </si>
+  <si>
+    <t>Make instant backups, sort sheets, and many more tools</t>
+  </si>
+  <si>
+    <t>Sample workbook and easy to follow user guide for key Excel functions</t>
+  </si>
+  <si>
+    <t>Contextures Sites &amp; News</t>
+  </si>
+  <si>
+    <t>Contextures Excel Newsletter</t>
+  </si>
+  <si>
+    <t>Weekly Excel tips, tutorials, videos, and news</t>
+  </si>
+  <si>
+    <t>Hundreds of tutorials, tips and sample files</t>
+  </si>
+  <si>
+    <t>Read the Excel tutorials and share your comments</t>
+  </si>
+  <si>
+    <t>Pivot table tutorials and tips, with comments and questions</t>
+  </si>
+  <si>
+    <t>Pivot Power Premium Add-in</t>
+  </si>
+  <si>
+    <t>Data Entry Search Popup</t>
+  </si>
+  <si>
+    <t>Makes data entry easier when choosing from long list</t>
+  </si>
+  <si>
+    <t>Data Entry Popup</t>
+  </si>
+  <si>
+    <t>Select single or multiple items from a listbox, to enter in a single cell</t>
+  </si>
+  <si>
+    <t>Other Excel Products</t>
+  </si>
+  <si>
+    <t>Other Excel tools and training, recommended by Debra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Ctx_Hyperlink" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="6" xr:uid="{3773A558-A41B-414B-AD30-4F07914B0E23}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{42AF42EE-676B-48D5-9423-178F52CF83CA}"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -257,25 +549,353 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>IF(B2="","",MAX(A$1:A1)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>IFERROR(INDEX($B$2:$B$13,MATCH(ROW()-ROW($D$1),$A$2:$A$13,0)),"")</f>
+        <v>January</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>IF(B3="","",MAX(A$1:A2)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D13" si="0">IFERROR(INDEX($B$2:$B$13,MATCH(ROW()-ROW($D$1),$A$2:$A$13,0)),"")</f>
+        <v>February</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>IF(B4="","",MAX(A$1:A3)+1)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>March</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>IF(B5="","",MAX(A$1:A4)+1)</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>April</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f>IF(B6="","",MAX(A$1:A5)+1)</f>
+        <v/>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>June</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>IF(B7="","",MAX(A$1:A6)+1)</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>July</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>IF(B8="","",MAX(A$1:A7)+1)</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>August</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>IF(B9="","",MAX(A$1:A8)+1)</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>October</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f>IF(B10="","",MAX(A$1:A9)+1)</f>
+        <v/>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>December</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>IF(B11="","",MAX(A$1:A10)+1)</f>
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f>IF(B12="","",MAX(A$1:A11)+1)</f>
+        <v/>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>IF(B13="","",MAX(A$1:A12)+1)</f>
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>ListMonths</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330E9D67-A018-4240-BEF4-8722AA306225}">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="B1:C17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="5" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="64" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" tooltip="Contextures Recommends" xr:uid="{196A26E3-0CB0-419E-8F23-F036B019BD50}"/>
+    <hyperlink ref="B8" r:id="rId2" tooltip="30 Excel Functions in 30 Days eBook kit" xr:uid="{19EBBF1C-8F00-469E-B828-84DCA7E61885}"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="UserForms for Data Entry ebook Kit" xr:uid="{E447D746-5055-48F8-A970-CF899A3E5C8A}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{203AC586-498D-4FD6-92A4-621C1CF846B0}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{BE399A99-82AF-4DB2-8252-BF500EBD5B09}"/>
+    <hyperlink ref="B14" r:id="rId6" xr:uid="{16C97A8B-243C-4711-BA43-DC435EA885B4}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{C2ED3FF0-7339-446F-A5FC-27A3C8C8F2D2}"/>
+    <hyperlink ref="B7" r:id="rId8" display="Data Validation Multi-Select Premium Kit" xr:uid="{1ABBD27C-CED5-4D14-BEB3-6546D3082380}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{A7E3C977-D856-46DE-9696-DA27DDB560D5}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{FFEA5002-A08B-4238-B87A-427F543ECFA5}"/>
+    <hyperlink ref="B3" r:id="rId11" xr:uid="{5531EE47-D9C0-4D58-9602-A3D41F1E6DFC}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;Lwww.contextures.com&amp;R&amp;D</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>